--- a/IARTAutomationApp/App_Data/SystemConfig.xlsx
+++ b/IARTAutomationApp/App_Data/SystemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\AmitSoni-McAutomation\IARTAutomationApp\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02164A9A-CE54-4C40-8C43-BBFCA2F16EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF69E2-FD15-4102-94B6-454FD30A67DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" firstSheet="5" activeTab="10" xr2:uid="{9A8217AE-05DD-490F-8D96-5DE6913E1B9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7800" firstSheet="5" activeTab="10" xr2:uid="{9A8217AE-05DD-490F-8D96-5DE6913E1B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadre" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="859">
   <si>
     <t>CadreId</t>
   </si>
@@ -2608,6 +2608,12 @@
   </si>
   <si>
     <t>RankName</t>
+  </si>
+  <si>
+    <t>NoName</t>
+  </si>
+  <si>
+    <t>RankDescription</t>
   </si>
 </sst>
 </file>
@@ -2989,15 +2995,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3011,17 +3017,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -3040,15 +3046,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>854</v>
       </c>
@@ -3072,26 +3078,40 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363C264D-DC8B-4200-AB29-2F300B09238A}">
-  <dimension ref="A13:D13"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -3107,14 +3127,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>814</v>
       </c>
@@ -3128,107 +3148,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>836</v>
       </c>
@@ -3244,7 +3264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3258,14 +3278,14 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="4"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -3276,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3284,7 +3304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3292,7 +3312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3300,7 +3320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3316,7 +3336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3324,7 +3344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3332,7 +3352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3340,7 +3360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3356,7 +3376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3364,7 +3384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3372,7 +3392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3380,7 +3400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3388,7 +3408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3396,7 +3416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3404,7 +3424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3412,7 +3432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3420,7 +3440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3428,7 +3448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3436,7 +3456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3452,7 +3472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3460,7 +3480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3468,7 +3488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3492,7 +3512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3500,7 +3520,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3508,7 +3528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3516,7 +3536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3524,7 +3544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3532,7 +3552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3540,7 +3560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3548,7 +3568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3577,14 +3597,14 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="4"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="4"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3598,7 +3618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -3606,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -3614,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>78</v>
       </c>
@@ -3622,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>79</v>
       </c>
@@ -3630,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>80</v>
       </c>
@@ -3638,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>81</v>
       </c>
@@ -3646,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>82</v>
       </c>
@@ -3654,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>83</v>
       </c>
@@ -3662,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -3670,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>85</v>
       </c>
@@ -3678,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -3686,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -3694,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -3702,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>89</v>
       </c>
@@ -3710,7 +3730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>90</v>
       </c>
@@ -3718,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -3734,7 +3754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -3742,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -3750,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>95</v>
       </c>
@@ -3758,7 +3778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>96</v>
       </c>
@@ -3766,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>97</v>
       </c>
@@ -3774,7 +3794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>98</v>
       </c>
@@ -3782,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>99</v>
       </c>
@@ -3790,7 +3810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>100</v>
       </c>
@@ -3798,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -3806,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>102</v>
       </c>
@@ -3814,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>103</v>
       </c>
@@ -3822,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>104</v>
       </c>
@@ -3830,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>105</v>
       </c>
@@ -3838,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -3846,7 +3866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>107</v>
       </c>
@@ -3854,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>108</v>
       </c>
@@ -3862,7 +3882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>109</v>
       </c>
@@ -3870,7 +3890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>110</v>
       </c>
@@ -3878,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>111</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>112</v>
       </c>
@@ -3894,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>113</v>
       </c>
@@ -3902,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>114</v>
       </c>
@@ -3910,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>115</v>
       </c>
@@ -3918,7 +3938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>116</v>
       </c>
@@ -3926,7 +3946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>117</v>
       </c>
@@ -3934,7 +3954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>118</v>
       </c>
@@ -3942,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>119</v>
       </c>
@@ -3950,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>120</v>
       </c>
@@ -3958,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>121</v>
       </c>
@@ -3966,7 +3986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>151</v>
       </c>
@@ -3974,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>122</v>
       </c>
@@ -3982,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>123</v>
       </c>
@@ -3990,7 +4010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>124</v>
       </c>
@@ -3998,7 +4018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>125</v>
       </c>
@@ -4006,7 +4026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>126</v>
       </c>
@@ -4014,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>127</v>
       </c>
@@ -4022,7 +4042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>128</v>
       </c>
@@ -4030,7 +4050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>129</v>
       </c>
@@ -4038,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>130</v>
       </c>
@@ -4046,7 +4066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>131</v>
       </c>
@@ -4054,7 +4074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>132</v>
       </c>
@@ -4062,7 +4082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>133</v>
       </c>
@@ -4070,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>134</v>
       </c>
@@ -4078,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>135</v>
       </c>
@@ -4086,7 +4106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>136</v>
       </c>
@@ -4094,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>137</v>
       </c>
@@ -4102,7 +4122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>138</v>
       </c>
@@ -4110,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>139</v>
       </c>
@@ -4118,7 +4138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>140</v>
       </c>
@@ -4126,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>141</v>
       </c>
@@ -4134,7 +4154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>142</v>
       </c>
@@ -4142,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>143</v>
       </c>
@@ -4150,7 +4170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>144</v>
       </c>
@@ -4158,7 +4178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>145</v>
       </c>
@@ -4166,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>146</v>
       </c>
@@ -4174,7 +4194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>147</v>
       </c>
@@ -4182,7 +4202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>148</v>
       </c>
@@ -4190,7 +4210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>149</v>
       </c>
@@ -4198,7 +4218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>150</v>
       </c>
@@ -4206,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>152</v>
       </c>
@@ -4214,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>153</v>
       </c>
@@ -4222,7 +4242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>154</v>
       </c>
@@ -4230,7 +4250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>155</v>
       </c>
@@ -4238,7 +4258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>156</v>
       </c>
@@ -4246,7 +4266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>157</v>
       </c>
@@ -4254,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>158</v>
       </c>
@@ -4262,7 +4282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>159</v>
       </c>
@@ -4270,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>160</v>
       </c>
@@ -4278,7 +4298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>161</v>
       </c>
@@ -4286,7 +4306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>162</v>
       </c>
@@ -4294,7 +4314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>163</v>
       </c>
@@ -4302,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>164</v>
       </c>
@@ -4310,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>165</v>
       </c>
@@ -4318,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>166</v>
       </c>
@@ -4326,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>167</v>
       </c>
@@ -4334,7 +4354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>168</v>
       </c>
@@ -4342,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>169</v>
       </c>
@@ -4350,7 +4370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>170</v>
       </c>
@@ -4358,7 +4378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>171</v>
       </c>
@@ -4366,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>172</v>
       </c>
@@ -4374,7 +4394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>173</v>
       </c>
@@ -4382,7 +4402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>174</v>
       </c>
@@ -4390,7 +4410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>175</v>
       </c>
@@ -4398,7 +4418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>176</v>
       </c>
@@ -4406,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>177</v>
       </c>
@@ -4414,7 +4434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>178</v>
       </c>
@@ -4422,7 +4442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>179</v>
       </c>
@@ -4430,7 +4450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>180</v>
       </c>
@@ -4438,7 +4458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>181</v>
       </c>
@@ -4446,7 +4466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>182</v>
       </c>
@@ -4454,7 +4474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>183</v>
       </c>
@@ -4462,7 +4482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>184</v>
       </c>
@@ -4470,7 +4490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>185</v>
       </c>
@@ -4478,7 +4498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>186</v>
       </c>
@@ -4486,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>187</v>
       </c>
@@ -4494,7 +4514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>188</v>
       </c>
@@ -4502,7 +4522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>189</v>
       </c>
@@ -4510,7 +4530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>190</v>
       </c>
@@ -4518,7 +4538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>191</v>
       </c>
@@ -4526,7 +4546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>192</v>
       </c>
@@ -4534,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>193</v>
       </c>
@@ -4542,7 +4562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>194</v>
       </c>
@@ -4550,7 +4570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>195</v>
       </c>
@@ -4558,7 +4578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>196</v>
       </c>
@@ -4566,7 +4586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>197</v>
       </c>
@@ -4574,7 +4594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>198</v>
       </c>
@@ -4582,7 +4602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>199</v>
       </c>
@@ -4590,7 +4610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>200</v>
       </c>
@@ -4598,7 +4618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>201</v>
       </c>
@@ -4606,7 +4626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>202</v>
       </c>
@@ -4614,7 +4634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>203</v>
       </c>
@@ -4622,7 +4642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>204</v>
       </c>
@@ -4630,7 +4650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>205</v>
       </c>
@@ -4638,7 +4658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>206</v>
       </c>
@@ -4646,7 +4666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>207</v>
       </c>
@@ -4654,7 +4674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>208</v>
       </c>
@@ -4662,7 +4682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>209</v>
       </c>
@@ -4670,7 +4690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>210</v>
       </c>
@@ -4678,7 +4698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>211</v>
       </c>
@@ -4686,7 +4706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>212</v>
       </c>
@@ -4694,7 +4714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>213</v>
       </c>
@@ -4702,7 +4722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>214</v>
       </c>
@@ -4710,7 +4730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>215</v>
       </c>
@@ -4718,7 +4738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>216</v>
       </c>
@@ -4726,7 +4746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>217</v>
       </c>
@@ -4734,7 +4754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>218</v>
       </c>
@@ -4742,7 +4762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>219</v>
       </c>
@@ -4750,7 +4770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>220</v>
       </c>
@@ -4758,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>221</v>
       </c>
@@ -4766,7 +4786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>222</v>
       </c>
@@ -4774,7 +4794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>223</v>
       </c>
@@ -4782,7 +4802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>224</v>
       </c>
@@ -4790,7 +4810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>225</v>
       </c>
@@ -4798,7 +4818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>226</v>
       </c>
@@ -4806,7 +4826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>227</v>
       </c>
@@ -4814,7 +4834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>228</v>
       </c>
@@ -4822,7 +4842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>229</v>
       </c>
@@ -4830,7 +4850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>230</v>
       </c>
@@ -4838,7 +4858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>231</v>
       </c>
@@ -4846,7 +4866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>232</v>
       </c>
@@ -4854,7 +4874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>233</v>
       </c>
@@ -4862,7 +4882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>234</v>
       </c>
@@ -4870,7 +4890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>235</v>
       </c>
@@ -4878,7 +4898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>236</v>
       </c>
@@ -4886,7 +4906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>237</v>
       </c>
@@ -4894,7 +4914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>238</v>
       </c>
@@ -4902,7 +4922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>239</v>
       </c>
@@ -4910,7 +4930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>240</v>
       </c>
@@ -4918,7 +4938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>241</v>
       </c>
@@ -4926,7 +4946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>242</v>
       </c>
@@ -4934,7 +4954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>243</v>
       </c>
@@ -4942,7 +4962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>244</v>
       </c>
@@ -4950,7 +4970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>245</v>
       </c>
@@ -4958,7 +4978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>246</v>
       </c>
@@ -4966,7 +4986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>247</v>
       </c>
@@ -4974,7 +4994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>248</v>
       </c>
@@ -4982,7 +5002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>249</v>
       </c>
@@ -4990,7 +5010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>250</v>
       </c>
@@ -4998,7 +5018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>251</v>
       </c>
@@ -5006,7 +5026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>252</v>
       </c>
@@ -5014,7 +5034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>253</v>
       </c>
@@ -5022,7 +5042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>254</v>
       </c>
@@ -5030,7 +5050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>255</v>
       </c>
@@ -5038,7 +5058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>256</v>
       </c>
@@ -5046,7 +5066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>257</v>
       </c>
@@ -5054,7 +5074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>258</v>
       </c>
@@ -5062,7 +5082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>259</v>
       </c>
@@ -5070,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>260</v>
       </c>
@@ -5078,7 +5098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>261</v>
       </c>
@@ -5086,7 +5106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>262</v>
       </c>
@@ -5094,7 +5114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>263</v>
       </c>
@@ -5102,7 +5122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>264</v>
       </c>
@@ -5110,7 +5130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>265</v>
       </c>
@@ -5118,7 +5138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>266</v>
       </c>
@@ -5126,7 +5146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>267</v>
       </c>
@@ -5134,7 +5154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>268</v>
       </c>
@@ -5142,7 +5162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>269</v>
       </c>
@@ -5150,7 +5170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>270</v>
       </c>
@@ -5158,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>271</v>
       </c>
@@ -5166,7 +5186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>272</v>
       </c>
@@ -5174,7 +5194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>273</v>
       </c>
@@ -5182,7 +5202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>274</v>
       </c>
@@ -5190,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>275</v>
       </c>
@@ -5198,7 +5218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>276</v>
       </c>
@@ -5206,7 +5226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>277</v>
       </c>
@@ -5214,7 +5234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>278</v>
       </c>
@@ -5222,7 +5242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>279</v>
       </c>
@@ -5230,7 +5250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>280</v>
       </c>
@@ -5238,7 +5258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>281</v>
       </c>
@@ -5246,7 +5266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>282</v>
       </c>
@@ -5254,7 +5274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>283</v>
       </c>
@@ -5262,7 +5282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>284</v>
       </c>
@@ -5270,7 +5290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>285</v>
       </c>
@@ -5278,7 +5298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>286</v>
       </c>
@@ -5286,7 +5306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>287</v>
       </c>
@@ -5294,7 +5314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>288</v>
       </c>
@@ -5302,7 +5322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>289</v>
       </c>
@@ -5310,7 +5330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>290</v>
       </c>
@@ -5318,7 +5338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>291</v>
       </c>
@@ -5326,7 +5346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>292</v>
       </c>
@@ -5334,7 +5354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>293</v>
       </c>
@@ -5342,7 +5362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>294</v>
       </c>
@@ -5350,7 +5370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>295</v>
       </c>
@@ -5358,7 +5378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>296</v>
       </c>
@@ -5366,7 +5386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>297</v>
       </c>
@@ -5374,7 +5394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>298</v>
       </c>
@@ -5382,7 +5402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>299</v>
       </c>
@@ -5390,7 +5410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>300</v>
       </c>
@@ -5398,7 +5418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>301</v>
       </c>
@@ -5406,7 +5426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>302</v>
       </c>
@@ -5414,7 +5434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>303</v>
       </c>
@@ -5422,7 +5442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>304</v>
       </c>
@@ -5430,7 +5450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>305</v>
       </c>
@@ -5438,7 +5458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>306</v>
       </c>
@@ -5446,7 +5466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>307</v>
       </c>
@@ -5454,7 +5474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>308</v>
       </c>
@@ -5462,7 +5482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>309</v>
       </c>
@@ -5470,7 +5490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>310</v>
       </c>
@@ -5478,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>311</v>
       </c>
@@ -5486,7 +5506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>312</v>
       </c>
@@ -5494,7 +5514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>313</v>
       </c>
@@ -5502,7 +5522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>314</v>
       </c>
@@ -5510,7 +5530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>315</v>
       </c>
@@ -5518,7 +5538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>316</v>
       </c>
@@ -5526,7 +5546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>317</v>
       </c>
@@ -5534,7 +5554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>318</v>
       </c>
@@ -5542,7 +5562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>319</v>
       </c>
@@ -5550,7 +5570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>320</v>
       </c>
@@ -5558,7 +5578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>321</v>
       </c>
@@ -5566,7 +5586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>322</v>
       </c>
@@ -5574,7 +5594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>323</v>
       </c>
@@ -5582,7 +5602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>324</v>
       </c>
@@ -5590,7 +5610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>325</v>
       </c>
@@ -5598,7 +5618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>326</v>
       </c>
@@ -5606,7 +5626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>327</v>
       </c>
@@ -5614,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>328</v>
       </c>
@@ -5622,7 +5642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>329</v>
       </c>
@@ -5630,7 +5650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>330</v>
       </c>
@@ -5638,7 +5658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>331</v>
       </c>
@@ -5646,7 +5666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>332</v>
       </c>
@@ -5654,7 +5674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>333</v>
       </c>
@@ -5662,7 +5682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>334</v>
       </c>
@@ -5670,7 +5690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>335</v>
       </c>
@@ -5678,7 +5698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>336</v>
       </c>
@@ -5686,7 +5706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>337</v>
       </c>
@@ -5694,7 +5714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>338</v>
       </c>
@@ -5702,7 +5722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>339</v>
       </c>
@@ -5710,7 +5730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>340</v>
       </c>
@@ -5718,7 +5738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>341</v>
       </c>
@@ -5726,7 +5746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>342</v>
       </c>
@@ -5734,7 +5754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>343</v>
       </c>
@@ -5742,7 +5762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>344</v>
       </c>
@@ -5750,7 +5770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>345</v>
       </c>
@@ -5758,7 +5778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>346</v>
       </c>
@@ -5766,7 +5786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>347</v>
       </c>
@@ -5774,7 +5794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>348</v>
       </c>
@@ -5782,7 +5802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>82</v>
       </c>
@@ -5790,7 +5810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>349</v>
       </c>
@@ -5798,7 +5818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>350</v>
       </c>
@@ -5806,7 +5826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>351</v>
       </c>
@@ -5814,7 +5834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>352</v>
       </c>
@@ -5822,7 +5842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>353</v>
       </c>
@@ -5830,7 +5850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>354</v>
       </c>
@@ -5838,7 +5858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>355</v>
       </c>
@@ -5846,7 +5866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>356</v>
       </c>
@@ -5854,7 +5874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>357</v>
       </c>
@@ -5862,7 +5882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>358</v>
       </c>
@@ -5870,7 +5890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>359</v>
       </c>
@@ -5878,7 +5898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>360</v>
       </c>
@@ -5886,7 +5906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>361</v>
       </c>
@@ -5894,7 +5914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>362</v>
       </c>
@@ -5902,7 +5922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>363</v>
       </c>
@@ -5910,7 +5930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>364</v>
       </c>
@@ -5918,7 +5938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>365</v>
       </c>
@@ -5926,7 +5946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>366</v>
       </c>
@@ -5934,7 +5954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>367</v>
       </c>
@@ -5942,7 +5962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>368</v>
       </c>
@@ -5950,7 +5970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>369</v>
       </c>
@@ -5958,7 +5978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>370</v>
       </c>
@@ -5966,7 +5986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>371</v>
       </c>
@@ -5974,7 +5994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>372</v>
       </c>
@@ -5982,7 +6002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>373</v>
       </c>
@@ -5990,7 +6010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>374</v>
       </c>
@@ -5998,7 +6018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>375</v>
       </c>
@@ -6006,7 +6026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>376</v>
       </c>
@@ -6014,7 +6034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>377</v>
       </c>
@@ -6022,7 +6042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>378</v>
       </c>
@@ -6030,7 +6050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>379</v>
       </c>
@@ -6038,7 +6058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>380</v>
       </c>
@@ -6046,7 +6066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>381</v>
       </c>
@@ -6054,7 +6074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>382</v>
       </c>
@@ -6062,7 +6082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>383</v>
       </c>
@@ -6070,7 +6090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>384</v>
       </c>
@@ -6078,7 +6098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>385</v>
       </c>
@@ -6086,7 +6106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>386</v>
       </c>
@@ -6094,7 +6114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>387</v>
       </c>
@@ -6102,7 +6122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>388</v>
       </c>
@@ -6110,7 +6130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>389</v>
       </c>
@@ -6118,7 +6138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>390</v>
       </c>
@@ -6126,7 +6146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>391</v>
       </c>
@@ -6134,7 +6154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>392</v>
       </c>
@@ -6142,7 +6162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>393</v>
       </c>
@@ -6150,7 +6170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>394</v>
       </c>
@@ -6158,7 +6178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>395</v>
       </c>
@@ -6166,7 +6186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>396</v>
       </c>
@@ -6174,7 +6194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>397</v>
       </c>
@@ -6182,7 +6202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>398</v>
       </c>
@@ -6190,7 +6210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>399</v>
       </c>
@@ -6198,7 +6218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>400</v>
       </c>
@@ -6206,7 +6226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>401</v>
       </c>
@@ -6214,7 +6234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>402</v>
       </c>
@@ -6222,7 +6242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>403</v>
       </c>
@@ -6230,7 +6250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>404</v>
       </c>
@@ -6238,7 +6258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>405</v>
       </c>
@@ -6246,7 +6266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>406</v>
       </c>
@@ -6254,7 +6274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>407</v>
       </c>
@@ -6262,7 +6282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>408</v>
       </c>
@@ -6270,7 +6290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>409</v>
       </c>
@@ -6278,7 +6298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>410</v>
       </c>
@@ -6286,7 +6306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>411</v>
       </c>
@@ -6294,7 +6314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>412</v>
       </c>
@@ -6302,7 +6322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>413</v>
       </c>
@@ -6310,7 +6330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>414</v>
       </c>
@@ -6318,7 +6338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>415</v>
       </c>
@@ -6326,7 +6346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>416</v>
       </c>
@@ -6334,7 +6354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>417</v>
       </c>
@@ -6342,7 +6362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>418</v>
       </c>
@@ -6350,7 +6370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>419</v>
       </c>
@@ -6358,7 +6378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>420</v>
       </c>
@@ -6366,7 +6386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>421</v>
       </c>
@@ -6374,7 +6394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>422</v>
       </c>
@@ -6382,7 +6402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>423</v>
       </c>
@@ -6390,7 +6410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>424</v>
       </c>
@@ -6398,7 +6418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>425</v>
       </c>
@@ -6406,7 +6426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>426</v>
       </c>
@@ -6414,7 +6434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>427</v>
       </c>
@@ -6422,7 +6442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>428</v>
       </c>
@@ -6430,7 +6450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>429</v>
       </c>
@@ -6438,7 +6458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>430</v>
       </c>
@@ -6446,7 +6466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>431</v>
       </c>
@@ -6454,7 +6474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>432</v>
       </c>
@@ -6462,7 +6482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>433</v>
       </c>
@@ -6470,7 +6490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>434</v>
       </c>
@@ -6478,7 +6498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>435</v>
       </c>
@@ -6486,7 +6506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>436</v>
       </c>
@@ -6494,7 +6514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>437</v>
       </c>
@@ -6502,7 +6522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>438</v>
       </c>
@@ -6510,7 +6530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>439</v>
       </c>
@@ -6518,7 +6538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>440</v>
       </c>
@@ -6526,7 +6546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>441</v>
       </c>
@@ -6534,7 +6554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>442</v>
       </c>
@@ -6542,7 +6562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>443</v>
       </c>
@@ -6550,7 +6570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>444</v>
       </c>
@@ -6558,7 +6578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>445</v>
       </c>
@@ -6566,7 +6586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>446</v>
       </c>
@@ -6574,7 +6594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>447</v>
       </c>
@@ -6582,7 +6602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
         <v>448</v>
       </c>
@@ -6590,7 +6610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>449</v>
       </c>
@@ -6598,7 +6618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>450</v>
       </c>
@@ -6606,7 +6626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
         <v>451</v>
       </c>
@@ -6614,7 +6634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>452</v>
       </c>
@@ -6622,7 +6642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>453</v>
       </c>
@@ -6630,7 +6650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>454</v>
       </c>
@@ -6638,7 +6658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>455</v>
       </c>
@@ -6646,7 +6666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>456</v>
       </c>
@@ -6654,7 +6674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>457</v>
       </c>
@@ -6662,7 +6682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
         <v>458</v>
       </c>
@@ -6670,7 +6690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
         <v>459</v>
       </c>
@@ -6678,7 +6698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
         <v>460</v>
       </c>
@@ -6686,7 +6706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
         <v>461</v>
       </c>
@@ -6694,7 +6714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
         <v>462</v>
       </c>
@@ -6702,7 +6722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
         <v>463</v>
       </c>
@@ -6710,7 +6730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
         <v>464</v>
       </c>
@@ -6718,7 +6738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
         <v>465</v>
       </c>
@@ -6726,7 +6746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
         <v>466</v>
       </c>
@@ -6734,7 +6754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>467</v>
       </c>
@@ -6742,7 +6762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>468</v>
       </c>
@@ -6750,7 +6770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>469</v>
       </c>
@@ -6758,7 +6778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>470</v>
       </c>
@@ -6766,7 +6786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
         <v>471</v>
       </c>
@@ -6774,7 +6794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
         <v>472</v>
       </c>
@@ -6782,7 +6802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
         <v>473</v>
       </c>
@@ -6790,7 +6810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
         <v>474</v>
       </c>
@@ -6798,7 +6818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
         <v>475</v>
       </c>
@@ -6806,7 +6826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
         <v>476</v>
       </c>
@@ -6814,7 +6834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
         <v>477</v>
       </c>
@@ -6822,7 +6842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>478</v>
       </c>
@@ -6830,7 +6850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
         <v>479</v>
       </c>
@@ -6838,7 +6858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
         <v>480</v>
       </c>
@@ -6846,7 +6866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
         <v>481</v>
       </c>
@@ -6854,7 +6874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
         <v>482</v>
       </c>
@@ -6862,7 +6882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>483</v>
       </c>
@@ -6870,7 +6890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>484</v>
       </c>
@@ -6878,7 +6898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>485</v>
       </c>
@@ -6886,7 +6906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>486</v>
       </c>
@@ -6894,7 +6914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>487</v>
       </c>
@@ -6902,7 +6922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>488</v>
       </c>
@@ -6910,7 +6930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>489</v>
       </c>
@@ -6918,7 +6938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>490</v>
       </c>
@@ -6926,7 +6946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
         <v>491</v>
       </c>
@@ -6934,7 +6954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>492</v>
       </c>
@@ -6942,7 +6962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>493</v>
       </c>
@@ -6950,7 +6970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>494</v>
       </c>
@@ -6958,7 +6978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>495</v>
       </c>
@@ -6966,7 +6986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>496</v>
       </c>
@@ -6974,7 +6994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
         <v>497</v>
       </c>
@@ -6982,7 +7002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>498</v>
       </c>
@@ -6990,7 +7010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>499</v>
       </c>
@@ -6998,7 +7018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
         <v>500</v>
       </c>
@@ -7006,7 +7026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>501</v>
       </c>
@@ -7014,7 +7034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>502</v>
       </c>
@@ -7022,7 +7042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>503</v>
       </c>
@@ -7030,7 +7050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>504</v>
       </c>
@@ -7038,7 +7058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>505</v>
       </c>
@@ -7046,7 +7066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
         <v>506</v>
       </c>
@@ -7054,7 +7074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
         <v>507</v>
       </c>
@@ -7062,7 +7082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
         <v>508</v>
       </c>
@@ -7070,7 +7090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
         <v>509</v>
       </c>
@@ -7078,7 +7098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
         <v>510</v>
       </c>
@@ -7086,7 +7106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
         <v>511</v>
       </c>
@@ -7094,7 +7114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>512</v>
       </c>
@@ -7102,7 +7122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B440" t="s">
         <v>513</v>
       </c>
@@ -7110,7 +7130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
         <v>514</v>
       </c>
@@ -7118,7 +7138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B442" t="s">
         <v>515</v>
       </c>
@@ -7126,7 +7146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
         <v>516</v>
       </c>
@@ -7134,7 +7154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
         <v>517</v>
       </c>
@@ -7142,7 +7162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
         <v>518</v>
       </c>
@@ -7150,7 +7170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
         <v>519</v>
       </c>
@@ -7158,7 +7178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
         <v>520</v>
       </c>
@@ -7166,7 +7186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
         <v>521</v>
       </c>
@@ -7174,7 +7194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>522</v>
       </c>
@@ -7182,7 +7202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>523</v>
       </c>
@@ -7190,7 +7210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
         <v>524</v>
       </c>
@@ -7198,7 +7218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>525</v>
       </c>
@@ -7206,7 +7226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>526</v>
       </c>
@@ -7214,7 +7234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>527</v>
       </c>
@@ -7222,7 +7242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>528</v>
       </c>
@@ -7230,7 +7250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>529</v>
       </c>
@@ -7238,7 +7258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>530</v>
       </c>
@@ -7246,7 +7266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>531</v>
       </c>
@@ -7254,7 +7274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>532</v>
       </c>
@@ -7262,7 +7282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
         <v>533</v>
       </c>
@@ -7270,7 +7290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
         <v>534</v>
       </c>
@@ -7278,7 +7298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>535</v>
       </c>
@@ -7286,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
         <v>536</v>
       </c>
@@ -7294,7 +7314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
         <v>537</v>
       </c>
@@ -7302,7 +7322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
         <v>538</v>
       </c>
@@ -7310,7 +7330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
         <v>539</v>
       </c>
@@ -7318,7 +7338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
         <v>540</v>
       </c>
@@ -7326,7 +7346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
         <v>541</v>
       </c>
@@ -7334,7 +7354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
         <v>542</v>
       </c>
@@ -7342,7 +7362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
         <v>543</v>
       </c>
@@ -7350,7 +7370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
         <v>544</v>
       </c>
@@ -7358,7 +7378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
         <v>545</v>
       </c>
@@ -7366,7 +7386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>546</v>
       </c>
@@ -7374,7 +7394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
         <v>547</v>
       </c>
@@ -7382,7 +7402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>548</v>
       </c>
@@ -7390,7 +7410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>312</v>
       </c>
@@ -7398,7 +7418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
         <v>549</v>
       </c>
@@ -7406,7 +7426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>550</v>
       </c>
@@ -7414,7 +7434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
         <v>551</v>
       </c>
@@ -7422,7 +7442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
         <v>552</v>
       </c>
@@ -7430,7 +7450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
         <v>553</v>
       </c>
@@ -7438,7 +7458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>554</v>
       </c>
@@ -7446,7 +7466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
         <v>555</v>
       </c>
@@ -7454,7 +7474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
         <v>556</v>
       </c>
@@ -7462,7 +7482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
         <v>557</v>
       </c>
@@ -7470,7 +7490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
         <v>558</v>
       </c>
@@ -7478,7 +7498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
         <v>559</v>
       </c>
@@ -7486,7 +7506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
         <v>560</v>
       </c>
@@ -7494,7 +7514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
         <v>561</v>
       </c>
@@ -7502,7 +7522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>562</v>
       </c>
@@ -7510,7 +7530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
         <v>563</v>
       </c>
@@ -7518,7 +7538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
         <v>564</v>
       </c>
@@ -7526,7 +7546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
         <v>565</v>
       </c>
@@ -7534,7 +7554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
         <v>566</v>
       </c>
@@ -7542,7 +7562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B495" t="s">
         <v>567</v>
       </c>
@@ -7550,7 +7570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
         <v>568</v>
       </c>
@@ -7558,7 +7578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
         <v>569</v>
       </c>
@@ -7566,7 +7586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B498" t="s">
         <v>570</v>
       </c>
@@ -7574,7 +7594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
         <v>571</v>
       </c>
@@ -7582,7 +7602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
         <v>572</v>
       </c>
@@ -7590,7 +7610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
         <v>573</v>
       </c>
@@ -7598,7 +7618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
         <v>574</v>
       </c>
@@ -7606,7 +7626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
         <v>575</v>
       </c>
@@ -7614,7 +7634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B504" t="s">
         <v>576</v>
       </c>
@@ -7622,7 +7642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
         <v>577</v>
       </c>
@@ -7630,7 +7650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B506" t="s">
         <v>578</v>
       </c>
@@ -7638,7 +7658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B507" t="s">
         <v>579</v>
       </c>
@@ -7646,7 +7666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B508" t="s">
         <v>580</v>
       </c>
@@ -7654,7 +7674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
         <v>581</v>
       </c>
@@ -7662,7 +7682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
         <v>582</v>
       </c>
@@ -7670,7 +7690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>583</v>
       </c>
@@ -7678,7 +7698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>584</v>
       </c>
@@ -7686,7 +7706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>585</v>
       </c>
@@ -7694,7 +7714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>194</v>
       </c>
@@ -7702,7 +7722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
         <v>586</v>
       </c>
@@ -7710,7 +7730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B516" t="s">
         <v>587</v>
       </c>
@@ -7718,7 +7738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B517" t="s">
         <v>588</v>
       </c>
@@ -7726,7 +7746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B518" t="s">
         <v>589</v>
       </c>
@@ -7734,7 +7754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
         <v>590</v>
       </c>
@@ -7742,7 +7762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
         <v>591</v>
       </c>
@@ -7750,7 +7770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B521" t="s">
         <v>592</v>
       </c>
@@ -7758,7 +7778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
         <v>593</v>
       </c>
@@ -7766,7 +7786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>594</v>
       </c>
@@ -7774,7 +7794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>595</v>
       </c>
@@ -7782,7 +7802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>596</v>
       </c>
@@ -7790,7 +7810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>597</v>
       </c>
@@ -7798,7 +7818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>598</v>
       </c>
@@ -7806,7 +7826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>599</v>
       </c>
@@ -7814,7 +7834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>600</v>
       </c>
@@ -7822,7 +7842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>601</v>
       </c>
@@ -7830,7 +7850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>602</v>
       </c>
@@ -7838,7 +7858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>603</v>
       </c>
@@ -7846,7 +7866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>604</v>
       </c>
@@ -7854,7 +7874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>605</v>
       </c>
@@ -7862,7 +7882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>606</v>
       </c>
@@ -7870,7 +7890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>607</v>
       </c>
@@ -7878,7 +7898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
         <v>608</v>
       </c>
@@ -7886,7 +7906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
         <v>609</v>
       </c>
@@ -7894,7 +7914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
         <v>610</v>
       </c>
@@ -7902,7 +7922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
         <v>611</v>
       </c>
@@ -7910,7 +7930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
         <v>612</v>
       </c>
@@ -7918,7 +7938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
         <v>613</v>
       </c>
@@ -7926,7 +7946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
         <v>614</v>
       </c>
@@ -7934,7 +7954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
         <v>615</v>
       </c>
@@ -7942,7 +7962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
         <v>616</v>
       </c>
@@ -7950,7 +7970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
         <v>617</v>
       </c>
@@ -7958,7 +7978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
         <v>618</v>
       </c>
@@ -7966,7 +7986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
         <v>619</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
         <v>620</v>
       </c>
@@ -7982,7 +8002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
         <v>621</v>
       </c>
@@ -7990,7 +8010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
         <v>622</v>
       </c>
@@ -7998,7 +8018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
         <v>623</v>
       </c>
@@ -8006,7 +8026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B553" t="s">
         <v>624</v>
       </c>
@@ -8014,7 +8034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
         <v>625</v>
       </c>
@@ -8022,7 +8042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
         <v>626</v>
       </c>
@@ -8030,7 +8050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
         <v>627</v>
       </c>
@@ -8038,7 +8058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
         <v>628</v>
       </c>
@@ -8046,7 +8066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
         <v>629</v>
       </c>
@@ -8054,7 +8074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B559" t="s">
         <v>630</v>
       </c>
@@ -8062,7 +8082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
         <v>631</v>
       </c>
@@ -8070,7 +8090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B561" t="s">
         <v>632</v>
       </c>
@@ -8078,7 +8098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B562" t="s">
         <v>633</v>
       </c>
@@ -8086,7 +8106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B563" t="s">
         <v>634</v>
       </c>
@@ -8094,7 +8114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
         <v>635</v>
       </c>
@@ -8102,7 +8122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="565" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
         <v>636</v>
       </c>
@@ -8110,7 +8130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="566" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
         <v>637</v>
       </c>
@@ -8118,7 +8138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="567" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
         <v>638</v>
       </c>
@@ -8126,7 +8146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="568" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B568" t="s">
         <v>639</v>
       </c>
@@ -8134,7 +8154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="569" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B569" t="s">
         <v>640</v>
       </c>
@@ -8142,7 +8162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B570" t="s">
         <v>641</v>
       </c>
@@ -8150,7 +8170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="571" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B571" t="s">
         <v>642</v>
       </c>
@@ -8158,7 +8178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B572" t="s">
         <v>643</v>
       </c>
@@ -8166,7 +8186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="573" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B573" t="s">
         <v>644</v>
       </c>
@@ -8174,7 +8194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B574" t="s">
         <v>645</v>
       </c>
@@ -8182,7 +8202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B575" t="s">
         <v>646</v>
       </c>
@@ -8190,7 +8210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>647</v>
       </c>
@@ -8198,7 +8218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
         <v>648</v>
       </c>
@@ -8206,7 +8226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B578" t="s">
         <v>649</v>
       </c>
@@ -8214,7 +8234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B579" t="s">
         <v>650</v>
       </c>
@@ -8222,7 +8242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B580" t="s">
         <v>651</v>
       </c>
@@ -8230,7 +8250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B581" t="s">
         <v>652</v>
       </c>
@@ -8238,7 +8258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
         <v>653</v>
       </c>
@@ -8246,7 +8266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B583" t="s">
         <v>654</v>
       </c>
@@ -8254,7 +8274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B584" t="s">
         <v>655</v>
       </c>
@@ -8262,7 +8282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B585" t="s">
         <v>656</v>
       </c>
@@ -8270,7 +8290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B586" t="s">
         <v>657</v>
       </c>
@@ -8278,7 +8298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B587" t="s">
         <v>658</v>
       </c>
@@ -8286,7 +8306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B588" t="s">
         <v>659</v>
       </c>
@@ -8294,7 +8314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B589" t="s">
         <v>660</v>
       </c>
@@ -8302,7 +8322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B590" t="s">
         <v>661</v>
       </c>
@@ -8310,7 +8330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B591" t="s">
         <v>662</v>
       </c>
@@ -8318,7 +8338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B592" t="s">
         <v>545</v>
       </c>
@@ -8326,7 +8346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B593" t="s">
         <v>663</v>
       </c>
@@ -8334,7 +8354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B594" t="s">
         <v>664</v>
       </c>
@@ -8342,7 +8362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B595" t="s">
         <v>665</v>
       </c>
@@ -8350,7 +8370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
         <v>312</v>
       </c>
@@ -8358,7 +8378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="597" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B597" t="s">
         <v>666</v>
       </c>
@@ -8366,7 +8386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B598" t="s">
         <v>667</v>
       </c>
@@ -8374,7 +8394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B599" t="s">
         <v>668</v>
       </c>
@@ -8382,7 +8402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B600" t="s">
         <v>669</v>
       </c>
@@ -8390,7 +8410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="601" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B601" t="s">
         <v>670</v>
       </c>
@@ -8398,7 +8418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="602" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B602" t="s">
         <v>671</v>
       </c>
@@ -8406,7 +8426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="603" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B603" t="s">
         <v>672</v>
       </c>
@@ -8414,7 +8434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B604" t="s">
         <v>673</v>
       </c>
@@ -8422,7 +8442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="605" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B605" t="s">
         <v>674</v>
       </c>
@@ -8430,7 +8450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="606" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B606" t="s">
         <v>675</v>
       </c>
@@ -8438,7 +8458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B607" t="s">
         <v>676</v>
       </c>
@@ -8446,7 +8466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="608" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B608" t="s">
         <v>677</v>
       </c>
@@ -8454,7 +8474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="609" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B609" t="s">
         <v>678</v>
       </c>
@@ -8462,7 +8482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="610" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B610" t="s">
         <v>679</v>
       </c>
@@ -8470,7 +8490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="611" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B611" t="s">
         <v>680</v>
       </c>
@@ -8478,7 +8498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="612" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B612" t="s">
         <v>681</v>
       </c>
@@ -8486,7 +8506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="613" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B613" t="s">
         <v>682</v>
       </c>
@@ -8494,7 +8514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="614" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B614" t="s">
         <v>683</v>
       </c>
@@ -8502,7 +8522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="615" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B615" t="s">
         <v>684</v>
       </c>
@@ -8510,7 +8530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="616" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B616" t="s">
         <v>685</v>
       </c>
@@ -8518,7 +8538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="617" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B617" t="s">
         <v>686</v>
       </c>
@@ -8526,7 +8546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="618" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B618" t="s">
         <v>306</v>
       </c>
@@ -8534,7 +8554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="619" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B619" t="s">
         <v>687</v>
       </c>
@@ -8542,7 +8562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="620" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B620" t="s">
         <v>688</v>
       </c>
@@ -8550,7 +8570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="621" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B621" t="s">
         <v>689</v>
       </c>
@@ -8558,7 +8578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="622" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B622" t="s">
         <v>690</v>
       </c>
@@ -8566,7 +8586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="623" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B623" t="s">
         <v>691</v>
       </c>
@@ -8574,7 +8594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="624" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B624" t="s">
         <v>692</v>
       </c>
@@ -8582,7 +8602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="625" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B625" t="s">
         <v>693</v>
       </c>
@@ -8590,7 +8610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="626" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B626" t="s">
         <v>694</v>
       </c>
@@ -8598,7 +8618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="627" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B627" t="s">
         <v>695</v>
       </c>
@@ -8606,7 +8626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="628" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B628" t="s">
         <v>696</v>
       </c>
@@ -8614,7 +8634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="629" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B629" t="s">
         <v>697</v>
       </c>
@@ -8622,7 +8642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="630" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B630" t="s">
         <v>698</v>
       </c>
@@ -8630,7 +8650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="631" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B631" t="s">
         <v>699</v>
       </c>
@@ -8638,7 +8658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="632" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B632" t="s">
         <v>700</v>
       </c>
@@ -8646,7 +8666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="633" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B633" t="s">
         <v>701</v>
       </c>
@@ -8654,7 +8674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="634" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B634" t="s">
         <v>702</v>
       </c>
@@ -8662,7 +8682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="635" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B635" t="s">
         <v>703</v>
       </c>
@@ -8670,7 +8690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="636" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B636" t="s">
         <v>704</v>
       </c>
@@ -8678,7 +8698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="637" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B637" t="s">
         <v>705</v>
       </c>
@@ -8686,7 +8706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="638" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B638" t="s">
         <v>706</v>
       </c>
@@ -8694,7 +8714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B639" t="s">
         <v>575</v>
       </c>
@@ -8702,7 +8722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="640" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B640" t="s">
         <v>707</v>
       </c>
@@ -8710,7 +8730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="641" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B641" t="s">
         <v>524</v>
       </c>
@@ -8718,7 +8738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="642" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B642" t="s">
         <v>708</v>
       </c>
@@ -8726,7 +8746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="643" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B643" t="s">
         <v>709</v>
       </c>
@@ -8734,7 +8754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="644" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B644" t="s">
         <v>710</v>
       </c>
@@ -8742,7 +8762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="645" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B645" t="s">
         <v>711</v>
       </c>
@@ -8750,7 +8770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="646" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B646" t="s">
         <v>712</v>
       </c>
@@ -8758,7 +8778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="647" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B647" t="s">
         <v>713</v>
       </c>
@@ -8766,7 +8786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="648" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B648" t="s">
         <v>714</v>
       </c>
@@ -8774,7 +8794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="649" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B649" t="s">
         <v>715</v>
       </c>
@@ -8782,7 +8802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="650" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B650" t="s">
         <v>716</v>
       </c>
@@ -8790,7 +8810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="651" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B651" t="s">
         <v>717</v>
       </c>
@@ -8798,7 +8818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="652" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B652" t="s">
         <v>718</v>
       </c>
@@ -8806,7 +8826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="653" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B653" t="s">
         <v>719</v>
       </c>
@@ -8814,7 +8834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="654" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B654" t="s">
         <v>720</v>
       </c>
@@ -8822,7 +8842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="655" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B655" t="s">
         <v>721</v>
       </c>
@@ -8830,7 +8850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="656" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B656" t="s">
         <v>722</v>
       </c>
@@ -8838,7 +8858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="657" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B657" t="s">
         <v>723</v>
       </c>
@@ -8846,7 +8866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="658" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B658" t="s">
         <v>724</v>
       </c>
@@ -8854,7 +8874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="659" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B659" t="s">
         <v>725</v>
       </c>
@@ -8862,7 +8882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="660" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B660" t="s">
         <v>726</v>
       </c>
@@ -8870,7 +8890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="661" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B661" t="s">
         <v>727</v>
       </c>
@@ -8878,7 +8898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="662" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B662" t="s">
         <v>728</v>
       </c>
@@ -8886,7 +8906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="663" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B663" t="s">
         <v>729</v>
       </c>
@@ -8894,7 +8914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="664" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B664" t="s">
         <v>730</v>
       </c>
@@ -8902,7 +8922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="665" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B665" t="s">
         <v>731</v>
       </c>
@@ -8910,7 +8930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="666" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B666" t="s">
         <v>732</v>
       </c>
@@ -8918,7 +8938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="667" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B667" t="s">
         <v>733</v>
       </c>
@@ -8926,7 +8946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="668" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B668" t="s">
         <v>734</v>
       </c>
@@ -8934,7 +8954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="669" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B669" t="s">
         <v>735</v>
       </c>
@@ -8942,7 +8962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="670" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B670" t="s">
         <v>736</v>
       </c>
@@ -8950,7 +8970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="671" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B671" t="s">
         <v>737</v>
       </c>
@@ -8958,7 +8978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="672" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B672" t="s">
         <v>738</v>
       </c>
@@ -8966,7 +8986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="673" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B673" t="s">
         <v>739</v>
       </c>
@@ -8974,7 +8994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="674" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B674" t="s">
         <v>740</v>
       </c>
@@ -8982,7 +9002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="675" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B675" t="s">
         <v>741</v>
       </c>
@@ -8990,7 +9010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="676" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B676" t="s">
         <v>742</v>
       </c>
@@ -8998,7 +9018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="677" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B677" t="s">
         <v>743</v>
       </c>
@@ -9006,7 +9026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="678" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B678" t="s">
         <v>744</v>
       </c>
@@ -9014,7 +9034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="679" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B679" t="s">
         <v>745</v>
       </c>
@@ -9022,7 +9042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="680" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B680" t="s">
         <v>746</v>
       </c>
@@ -9030,7 +9050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="681" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B681" t="s">
         <v>747</v>
       </c>
@@ -9038,7 +9058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="682" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B682" t="s">
         <v>748</v>
       </c>
@@ -9046,7 +9066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="683" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B683" t="s">
         <v>749</v>
       </c>
@@ -9054,7 +9074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="684" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B684" t="s">
         <v>750</v>
       </c>
@@ -9062,7 +9082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="685" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B685" t="s">
         <v>751</v>
       </c>
@@ -9070,7 +9090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="686" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B686" t="s">
         <v>752</v>
       </c>
@@ -9078,7 +9098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="687" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B687" t="s">
         <v>753</v>
       </c>
@@ -9086,7 +9106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="688" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B688" t="s">
         <v>754</v>
       </c>
@@ -9094,7 +9114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="689" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B689" t="s">
         <v>755</v>
       </c>
@@ -9102,7 +9122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="690" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B690" t="s">
         <v>756</v>
       </c>
@@ -9110,7 +9130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="691" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B691" t="s">
         <v>757</v>
       </c>
@@ -9118,7 +9138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="692" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B692" t="s">
         <v>758</v>
       </c>
@@ -9126,7 +9146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="693" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B693" t="s">
         <v>759</v>
       </c>
@@ -9134,7 +9154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="694" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B694" t="s">
         <v>760</v>
       </c>
@@ -9142,7 +9162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="695" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B695" t="s">
         <v>761</v>
       </c>
@@ -9150,7 +9170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="696" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B696" t="s">
         <v>762</v>
       </c>
@@ -9158,7 +9178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="697" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B697" t="s">
         <v>763</v>
       </c>
@@ -9166,7 +9186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="698" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B698" t="s">
         <v>764</v>
       </c>
@@ -9174,7 +9194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="699" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B699" t="s">
         <v>765</v>
       </c>
@@ -9182,7 +9202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="700" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B700" t="s">
         <v>766</v>
       </c>
@@ -9190,7 +9210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="701" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B701" t="s">
         <v>767</v>
       </c>
@@ -9198,7 +9218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="702" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B702" t="s">
         <v>768</v>
       </c>
@@ -9206,7 +9226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="703" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B703" t="s">
         <v>769</v>
       </c>
@@ -9214,7 +9234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="704" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B704" t="s">
         <v>770</v>
       </c>
@@ -9222,7 +9242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="705" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B705" t="s">
         <v>771</v>
       </c>
@@ -9230,7 +9250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="706" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B706" t="s">
         <v>772</v>
       </c>
@@ -9238,7 +9258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B707" t="s">
         <v>773</v>
       </c>
@@ -9246,7 +9266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="708" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B708" t="s">
         <v>774</v>
       </c>
@@ -9254,7 +9274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B709" t="s">
         <v>775</v>
       </c>
@@ -9262,7 +9282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="710" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B710" t="s">
         <v>776</v>
       </c>
@@ -9270,7 +9290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="711" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B711" t="s">
         <v>777</v>
       </c>
@@ -9278,7 +9298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="712" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B712" t="s">
         <v>778</v>
       </c>
@@ -9286,7 +9306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="713" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B713" t="s">
         <v>779</v>
       </c>
@@ -9294,7 +9314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="714" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B714" t="s">
         <v>780</v>
       </c>
@@ -9302,7 +9322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="715" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B715" t="s">
         <v>781</v>
       </c>
@@ -9310,7 +9330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="716" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B716" t="s">
         <v>782</v>
       </c>
@@ -9318,7 +9338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="717" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B717" t="s">
         <v>783</v>
       </c>
@@ -9326,7 +9346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="718" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B718" t="s">
         <v>784</v>
       </c>
@@ -9334,7 +9354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="719" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B719" t="s">
         <v>785</v>
       </c>
@@ -9342,7 +9362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="720" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B720" t="s">
         <v>786</v>
       </c>
@@ -9350,7 +9370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="721" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B721" t="s">
         <v>787</v>
       </c>
@@ -9358,7 +9378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="722" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B722" t="s">
         <v>788</v>
       </c>
@@ -9366,7 +9386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="723" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B723" t="s">
         <v>789</v>
       </c>
@@ -9374,7 +9394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="724" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B724" t="s">
         <v>790</v>
       </c>
@@ -9382,7 +9402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="725" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B725" t="s">
         <v>791</v>
       </c>
@@ -9390,7 +9410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="726" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B726" t="s">
         <v>792</v>
       </c>
@@ -9398,7 +9418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="727" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B727" t="s">
         <v>793</v>
       </c>
@@ -9406,7 +9426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="728" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B728" t="s">
         <v>794</v>
       </c>
@@ -9414,7 +9434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="729" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B729" t="s">
         <v>795</v>
       </c>
@@ -9422,7 +9442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="730" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B730" t="s">
         <v>796</v>
       </c>
@@ -9430,7 +9450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="731" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B731" t="s">
         <v>797</v>
       </c>
@@ -9438,7 +9458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="732" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B732" t="s">
         <v>798</v>
       </c>
@@ -9446,7 +9466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="733" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B733" t="s">
         <v>799</v>
       </c>
@@ -9454,7 +9474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="734" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B734" t="s">
         <v>800</v>
       </c>
@@ -9462,7 +9482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="735" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B735" t="s">
         <v>801</v>
       </c>
@@ -9470,7 +9490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="736" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B736" t="s">
         <v>802</v>
       </c>
@@ -9478,7 +9498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="737" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B737" t="s">
         <v>803</v>
       </c>
@@ -9486,7 +9506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="738" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B738" t="s">
         <v>804</v>
       </c>
@@ -9494,7 +9514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="739" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B739" t="s">
         <v>805</v>
       </c>
@@ -9502,7 +9522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="740" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B740" t="s">
         <v>806</v>
       </c>
@@ -9510,7 +9530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="741" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B741" t="s">
         <v>807</v>
       </c>
@@ -9518,7 +9538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="742" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B742" t="s">
         <v>808</v>
       </c>
@@ -9526,7 +9546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="743" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B743" t="s">
         <v>809</v>
       </c>
@@ -9534,7 +9554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="744" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B744" t="s">
         <v>810</v>
       </c>
@@ -9542,7 +9562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="745" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B745" t="s">
         <v>811</v>
       </c>
@@ -9550,7 +9570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="746" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B746" t="s">
         <v>812</v>
       </c>
@@ -9558,7 +9578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="747" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B747" t="s">
         <v>813</v>
       </c>
@@ -9579,15 +9599,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9601,37 +9621,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -9649,15 +9669,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9671,32 +9691,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -9714,15 +9734,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -9736,22 +9756,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -9769,15 +9789,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>844</v>
       </c>
@@ -9791,37 +9811,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>843</v>
       </c>
@@ -9839,15 +9859,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -9861,22 +9881,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -9894,15 +9914,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>846</v>
       </c>
@@ -9916,32 +9936,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>853</v>
       </c>
